--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -1198,7 +1198,7 @@
     <t xml:space="preserve">https://www.tamanmini.com/pesona_indonesia/museum-museum/museum-prangko-indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">dapat Potongan 10%</t>
+    <t xml:space="preserve">Dapat Potongan 10%</t>
   </si>
   <si>
     <t xml:space="preserve">46, 12, 24, 21.8, 15, 5.7</t>
@@ -1628,7 +1628,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1650,14 +1650,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1741,11 +1733,11 @@
   </sheetPr>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q47" activeCellId="0" sqref="Q47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="117.43"/>
@@ -1884,7 +1876,7 @@
       <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -1972,10 +1964,10 @@
       <c r="E5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -2063,7 +2055,7 @@
       <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -2110,7 +2102,7 @@
       <c r="E8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3059,20 +3051,20 @@
       <c r="E31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="4" t="s">
         <v>263</v>
       </c>
       <c r="O31" s="4" t="s">
@@ -3113,10 +3105,10 @@
       <c r="I32" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="K32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="4" t="s">
@@ -3148,10 +3140,10 @@
       <c r="E33" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -3198,7 +3190,7 @@
       <c r="I34" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K34" s="4" t="n">
@@ -3239,7 +3231,7 @@
       <c r="H35" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K35" s="4" t="n">
@@ -3283,7 +3275,7 @@
       <c r="I36" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K36" s="4" t="n">
@@ -3330,10 +3322,10 @@
       <c r="I37" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="4" t="s">
         <v>312</v>
       </c>
       <c r="O37" s="4" t="s">
@@ -3377,10 +3369,10 @@
       <c r="I38" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="4" t="s">
         <v>323</v>
       </c>
       <c r="O38" s="4" t="s">
@@ -3415,7 +3407,7 @@
       <c r="H39" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="4" t="s">
         <v>330</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -3471,10 +3463,10 @@
       <c r="I40" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="4" t="s">
         <v>343</v>
       </c>
       <c r="O40" s="4" t="s">
@@ -3518,25 +3510,25 @@
       <c r="I41" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="4" t="s">
         <v>357</v>
       </c>
       <c r="Q41" s="0" t="n">
@@ -3574,16 +3566,16 @@
       <c r="I42" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" s="4" t="s">
         <v>364</v>
       </c>
       <c r="Q42" s="0" t="n">
@@ -3609,7 +3601,7 @@
       <c r="E43" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>368</v>
       </c>
       <c r="H43" s="0" t="s">
@@ -3618,16 +3610,16 @@
       <c r="I43" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="4" t="s">
         <v>371</v>
       </c>
       <c r="Q43" s="0" t="n">
@@ -3662,25 +3654,25 @@
       <c r="I44" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="4" t="s">
         <v>381</v>
       </c>
       <c r="Q44" s="0" t="n">
@@ -3706,7 +3698,7 @@
       <c r="E45" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="4" t="s">
         <v>386</v>
       </c>
       <c r="G45" s="0" t="s">
@@ -3715,16 +3707,16 @@
       <c r="H45" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O45" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" s="4" t="s">
         <v>388</v>
       </c>
       <c r="Q45" s="0" t="n">
@@ -3750,7 +3742,7 @@
       <c r="F46" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K46" s="4" t="n">
@@ -3762,10 +3754,10 @@
       <c r="M46" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46" s="4" t="s">
         <v>393</v>
       </c>
       <c r="Q46" s="0" t="n">
@@ -3797,25 +3789,25 @@
       <c r="I47" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P47" s="4" t="s">
         <v>399</v>
       </c>
       <c r="Q47" s="0" t="n">
@@ -3844,16 +3836,16 @@
       <c r="F48" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="4" t="s">
         <v>404</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="O48" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48" s="4" t="s">
         <v>407</v>
       </c>
       <c r="Q48" s="0" t="n">
@@ -3879,16 +3871,16 @@
       <c r="E49" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="O49" s="7" t="s">
+      <c r="O49" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="P49" s="4" t="s">
         <v>411</v>
       </c>
       <c r="Q49" s="0" t="n">
@@ -3920,16 +3912,16 @@
       <c r="G50" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O50" s="7" t="s">
+      <c r="O50" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="P50" s="4" t="s">
         <v>419</v>
       </c>
       <c r="Q50" s="0" t="n">
@@ -3952,16 +3944,16 @@
       <c r="D51" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P51" s="4" t="s">
         <v>424</v>
       </c>
       <c r="Q51" s="0" t="n">
@@ -3993,16 +3985,16 @@
       <c r="I52" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="O52" s="7" t="s">
+      <c r="O52" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="P52" s="4" t="s">
         <v>432</v>
       </c>
       <c r="Q52" s="0" t="n">
@@ -4025,16 +4017,16 @@
       <c r="D53" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="4" t="s">
         <v>245</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" s="4" t="s">
         <v>437</v>
       </c>
       <c r="Q53" s="0" t="n">
@@ -4069,25 +4061,25 @@
       <c r="I54" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M54" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="N54" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="O54" s="7" t="s">
+      <c r="O54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="P54" s="4" t="s">
         <v>448</v>
       </c>
       <c r="Q54" s="0" t="n">
@@ -4110,22 +4102,22 @@
       <c r="D55" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>451</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>25000</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="P55" s="4" t="s">
         <v>453</v>
       </c>
       <c r="Q55" s="0" t="n">
@@ -4163,25 +4155,25 @@
       <c r="I56" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="M56" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O56" s="7" t="s">
+      <c r="O56" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="P56" s="4" t="s">
         <v>461</v>
       </c>
       <c r="Q56" s="0" t="n">
@@ -4213,25 +4205,25 @@
       <c r="I57" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="M57" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="N57" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="O57" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="P57" s="4" t="s">
         <v>469</v>
       </c>
       <c r="Q57" s="0" t="n">
@@ -4260,16 +4252,16 @@
       <c r="F58" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="O58" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="P58" s="4" t="s">
         <v>475</v>
       </c>
       <c r="Q58" s="0" t="n">
@@ -4304,16 +4296,16 @@
       <c r="I59" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="O59" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="P59" s="4" t="s">
         <v>483</v>
       </c>
       <c r="Q59" s="0" t="n">
@@ -4339,22 +4331,22 @@
       <c r="E60" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="4" t="s">
         <v>487</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="P60" s="4" t="s">
         <v>491</v>
       </c>
       <c r="Q60" s="0" t="n">
@@ -4383,16 +4375,16 @@
       <c r="H61" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="O61" s="7" t="s">
+      <c r="O61" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="P61" s="4" t="s">
         <v>499</v>
       </c>
       <c r="Q61" s="0" t="n">
@@ -4430,16 +4422,16 @@
       <c r="I62" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K62" s="4" t="n">
         <v>16500</v>
       </c>
-      <c r="O62" s="7" t="s">
+      <c r="O62" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="P62" s="4" t="s">
         <v>506</v>
       </c>
       <c r="Q62" s="0" t="n">

--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -1733,8 +1733,8 @@
   </sheetPr>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1753,7 +1753,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="29.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.28"/>
@@ -3753,6 +3753,9 @@
       </c>
       <c r="M46" s="0" t="s">
         <v>143</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>4500</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>93</v>

--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="568">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">art1_newmuseum</t>
   </si>
   <si>
-    <t xml:space="preserve">Wisatawan Mancanegara, Umum, Pelajar, Anak – Anak</t>
+    <t xml:space="preserve">Wisatawan Mancanegara, Umum, Pelajar, Anak - Anak</t>
   </si>
   <si>
     <t xml:space="preserve">125000, 100000, 75000, 0</t>
@@ -1345,12 +1345,6 @@
     <t xml:space="preserve">MuseumNasProk</t>
   </si>
   <si>
-    <t xml:space="preserve">Dewasa, Anak – Anak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewasa, Anak – Anak, Wisatawan Mancanegara</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rombongan (min. 20 Orang)</t>
   </si>
   <si>
@@ -1423,7 +1417,7 @@
     <t xml:space="preserve">https://www.tamanmini.com/pesona_indonesia/museum-museum/museum-purna-bhakti-pertiwi</t>
   </si>
   <si>
-    <t xml:space="preserve">Anak – Anak, Dewasa</t>
+    <t xml:space="preserve">Anak - Anak, Dewasa</t>
   </si>
   <si>
     <t xml:space="preserve">3000, 5000</t>
@@ -1949,10 +1943,10 @@
   </sheetPr>
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="AC41" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="topRight" activeCell="AC60" activeCellId="0" sqref="AC60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="X25" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topRight" activeCell="Y44" activeCellId="0" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4594,16 +4588,16 @@
         <v>440</v>
       </c>
       <c r="W44" s="11" t="s">
-        <v>441</v>
+        <v>99</v>
       </c>
       <c r="X44" s="9" t="s">
         <v>158</v>
       </c>
       <c r="Y44" s="9" t="s">
-        <v>442</v>
+        <v>188</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA44" s="9" t="s">
         <v>190</v>
@@ -4612,7 +4606,7 @@
         <v>126</v>
       </c>
       <c r="AC44" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AD44" s="0" t="n">
         <v>-6.20037495844248</v>
@@ -4623,7 +4617,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
@@ -4638,25 +4632,25 @@
         <v>53</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P45" s="0" t="s">
         <v>131</v>
       </c>
       <c r="Q45" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S45" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="T45" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="S45" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="T45" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="U45" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W45" s="11" t="s">
         <v>60</v>
@@ -4668,7 +4662,7 @@
         <v>144</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AD45" s="0" t="n">
         <v>-6.2393418780699</v>
@@ -4679,7 +4673,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>64</v>
@@ -4700,10 +4694,10 @@
         <v>55</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W46" s="11" t="s">
         <v>60</v>
@@ -4712,7 +4706,7 @@
         <v>5000</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Z46" s="0" t="s">
         <v>189</v>
@@ -4724,7 +4718,7 @@
         <v>134</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AD46" s="0" t="n">
         <v>-6.30418456771596</v>
@@ -4735,7 +4729,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>64</v>
@@ -4756,16 +4750,16 @@
         <v>55</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U47" s="0" t="s">
         <v>303</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="W47" s="11" t="s">
         <v>306</v>
@@ -4783,10 +4777,10 @@
         <v>307</v>
       </c>
       <c r="AB47" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AD47" s="0" t="n">
         <v>-6.17222481141279</v>
@@ -4797,7 +4791,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>64</v>
@@ -4818,25 +4812,25 @@
         <v>55</v>
       </c>
       <c r="Q48" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S48" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="W48" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="S48" s="0" t="s">
+      <c r="X48" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="W48" s="11" t="s">
+      <c r="AB48" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="X48" s="9" t="s">
+      <c r="AC48" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="AB48" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="AD48" s="0" t="n">
         <v>-6.30034768893479</v>
@@ -4847,7 +4841,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>64</v>
@@ -4868,10 +4862,10 @@
         <v>55</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="W49" s="11" t="s">
         <v>60</v>
@@ -4883,7 +4877,7 @@
         <v>144</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AD49" s="0" t="n">
         <v>-6.30521410272485</v>
@@ -4894,7 +4888,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
@@ -4915,22 +4909,22 @@
         <v>201</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q50" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S50" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="T50" s="0" t="s">
         <v>478</v>
-      </c>
-      <c r="S50" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="T50" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>60</v>
@@ -4939,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AC50" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AD50" s="0" t="n">
         <v>-6.1669512894793</v>
@@ -4953,7 +4947,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>106</v>
@@ -4968,13 +4962,13 @@
         <v>37</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P51" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W51" s="11" t="s">
         <v>60</v>
@@ -4983,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AD51" s="0" t="n">
         <v>-6.20462964280586</v>
@@ -4997,7 +4991,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>106</v>
@@ -5012,34 +5006,34 @@
         <v>53</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P52" s="0" t="s">
         <v>131</v>
       </c>
       <c r="Q52" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="U52" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="S52" s="0" t="s">
+      <c r="V52" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="W52" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="U52" s="0" t="s">
+      <c r="X52" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="V52" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="W52" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="X52" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="AB52" s="11" t="s">
         <v>355</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AD52" s="0" t="n">
         <v>-6.23169896306931</v>
@@ -5050,7 +5044,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>64</v>
@@ -5065,13 +5059,13 @@
         <v>53</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P53" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="W53" s="11" t="s">
         <v>304</v>
@@ -5080,10 +5074,10 @@
         <v>305</v>
       </c>
       <c r="AB53" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AD53" s="0" t="n">
         <v>-6.13520026432625</v>
@@ -5094,7 +5088,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>32</v>
@@ -5109,46 +5103,46 @@
         <v>53</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P54" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q54" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="S54" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="U54" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="S54" s="0" t="s">
+      <c r="V54" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="U54" s="0" t="s">
+      <c r="W54" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="V54" s="0" t="s">
+      <c r="X54" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="X54" s="9" t="s">
-        <v>509</v>
-      </c>
       <c r="Y54" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Z54" s="11" t="s">
         <v>189</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AB54" s="11" t="s">
         <v>126</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AD54" s="0" t="n">
         <v>-6.13421820441045</v>
@@ -5159,7 +5153,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>246</v>
@@ -5180,13 +5174,13 @@
         <v>55</v>
       </c>
       <c r="Q55" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="S55" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="S55" s="0" t="s">
-        <v>515</v>
       </c>
       <c r="W55" s="11" t="s">
         <v>60</v>
@@ -5198,7 +5192,7 @@
         <v>159</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AD55" s="0" t="n">
         <v>-6.30574271489993</v>
@@ -5209,7 +5203,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
@@ -5233,28 +5227,28 @@
         <v>175</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P56" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q56" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="S56" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="T56" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="S56" s="0" t="s">
+      <c r="U56" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="V56" s="0" t="s">
         <v>521</v>
-      </c>
-      <c r="T56" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="U56" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="V56" s="0" t="s">
-        <v>523</v>
       </c>
       <c r="W56" s="11" t="s">
         <v>99</v>
@@ -5275,7 +5269,7 @@
         <v>126</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AD56" s="0" t="n">
         <v>-6.18379952050197</v>
@@ -5286,7 +5280,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>32</v>
@@ -5301,43 +5295,43 @@
         <v>53</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P57" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q57" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="U57" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="R57" s="10" t="s">
+      <c r="V57" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="V57" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="W57" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="X57" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Y57" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Z57" s="11" t="s">
         <v>189</v>
       </c>
       <c r="AA57" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AD57" s="0" t="n">
         <v>-6.18796452926196</v>
@@ -5348,7 +5342,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>64</v>
@@ -5369,13 +5363,13 @@
         <v>55</v>
       </c>
       <c r="Q58" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="S58" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="S58" s="0" t="s">
-        <v>536</v>
       </c>
       <c r="W58" s="11" t="s">
         <v>60</v>
@@ -5384,10 +5378,10 @@
         <v>5000</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AD58" s="0" t="n">
         <v>-6.30331509392487</v>
@@ -5398,7 +5392,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
@@ -5413,25 +5407,25 @@
         <v>53</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P59" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q59" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S59" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="U59" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="S59" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="U59" s="0" t="s">
-        <v>544</v>
-      </c>
       <c r="V59" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W59" s="11" t="s">
         <v>60</v>
@@ -5440,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD59" s="0" t="n">
         <v>-6.16770993445603</v>
@@ -5454,7 +5448,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>298</v>
@@ -5475,28 +5469,28 @@
         <v>55</v>
       </c>
       <c r="Q60" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="S60" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="R60" s="10" t="s">
+      <c r="U60" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="S60" s="11" t="s">
+      <c r="W60" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="U60" s="0" t="s">
+      <c r="X60" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="W60" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="X60" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="AB60" s="11" t="s">
         <v>144</v>
       </c>
       <c r="AC60" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AD60" s="0" t="n">
         <v>-6.30491375819847</v>
@@ -5507,7 +5501,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
@@ -5522,31 +5516,31 @@
         <v>53</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P61" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q61" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="U61" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="W61" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="U61" s="0" t="s">
+      <c r="X61" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="W61" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="X61" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="AB61" s="11" t="s">
         <v>134</v>
       </c>
       <c r="AC61" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AD61" s="0" t="n">
         <v>-6.13490616619183</v>
@@ -5557,7 +5551,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>137</v>
@@ -5596,22 +5590,22 @@
         <v>55</v>
       </c>
       <c r="Q62" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="S62" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="R62" s="10" t="s">
+      <c r="T62" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="S62" s="0" t="s">
+      <c r="U62" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="T62" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="U62" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="V62" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W62" s="11" t="s">
         <v>60</v>
@@ -5623,7 +5617,7 @@
         <v>144</v>
       </c>
       <c r="AC62" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AD62" s="0" t="n">
         <v>-6.30221876193348</v>

--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="623">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -958,6 +959,9 @@
     <t xml:space="preserve">Senin, Selasa, Rabu, Kamis, Sabtu</t>
   </si>
   <si>
+    <t xml:space="preserve">Gereja Katedral, Jl. Katedral No.7B, Jakarta Pusat</t>
+  </si>
+  <si>
     <t xml:space="preserve">(021) 3457746</t>
   </si>
   <si>
@@ -976,6 +980,9 @@
     <t xml:space="preserve">Museum Kebangkitan Nasional</t>
   </si>
   <si>
+    <t xml:space="preserve">Jl. Abdul Rachman Saleh No.26 RT.4/RW. 5 Senen, Jakarta Pusat</t>
+  </si>
+  <si>
     <t xml:space="preserve">(021) 3847975</t>
   </si>
   <si>
@@ -1390,12 +1397,18 @@
     <t xml:space="preserve">Museum Prasasti</t>
   </si>
   <si>
+    <t xml:space="preserve">Jl. Tanah Abang I No.1, RT.11/RW.8, Petojo Selatan,  Gambir, Jakarta Pusat</t>
+  </si>
+  <si>
     <t xml:space="preserve">(021) 3854060</t>
   </si>
   <si>
     <t xml:space="preserve">museumtamanprasasti@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">museumprasasti</t>
+  </si>
+  <si>
     <t xml:space="preserve">MuseumPrasasti</t>
   </si>
   <si>
@@ -1724,6 +1737,177 @@
   </si>
   <si>
     <t xml:space="preserve">46.2, 11.9, 24.1, 24, 5.8, 16.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM Translation = E53 Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P87 is identified by (identifies) E41 Place Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type (is type of) E55 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P89 falls within (contains) E53 Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P87 is identified by (identifies) E45 Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P87 is identified by (identifies) E47 Spatial Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 is identified by (identifies) E51 Contact Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://…..com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule (category)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule 1, Schedule 2, Schedule 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senin, Selasa, … , Minggu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type (is type of) E55 Type P45 consists of (is incorporated in) E49 Time Appellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pameran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type (is type of) E55 Type P45 consists of (is incorporated in) E49 Time Appellation P1 is identified by (identifies) E41 Appellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type (is type of) E55 Type P45 consists of (is incorporated in) E49 Time Appellation P81 ongoing throughout E52 Time-Span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket 1, Ticket 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisatawan Mancanegara, … , Pelajar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type (is type of) E55 Type P2 has type (is type of) E55 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type (is type of) E55 Type P2 has type (is type of) E55 Type P1 is identified by (identifies) E41 Appellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket Price</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">P2 has type (is type of) E55 Type P2 has type (is type of) E55 Type P90 has value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E60 Number</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandara Halim, … , Terminal Senen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type E55 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 has type E55 Type P90 has value E60 Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject to Change</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1921,7 @@
     <numFmt numFmtId="167" formatCode="hh:mm"/>
     <numFmt numFmtId="168" formatCode="[$-421]hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1768,21 +1952,64 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1814,7 +2041,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1863,6 +2090,82 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1889,7 +2192,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1924,7 +2227,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1943,10 +2246,10 @@
   </sheetPr>
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="X25" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="topRight" activeCell="Y44" activeCellId="0" sqref="Y44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="U34" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topRight" activeCell="U47" activeCellId="0" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3740,19 +4043,19 @@
         <v>37</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W30" s="0" t="s">
         <v>60</v>
@@ -3761,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC30" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AD30" s="0" t="n">
         <v>-6.16885829072755</v>
@@ -3775,7 +4078,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
@@ -3790,38 +4093,38 @@
         <v>37</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W31" s="11" t="s">
         <v>188</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB31" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AC31" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD31" s="0" t="n">
         <v>-6.17835191873556</v>
@@ -3832,7 +4135,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>137</v>
@@ -3847,25 +4150,25 @@
         <v>53</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="W32" s="11" t="s">
         <v>60</v>
@@ -3874,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="AB32" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AC32" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AD32" s="0" t="n">
         <v>-6.20721571624718</v>
@@ -3888,7 +4191,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>106</v>
@@ -3909,25 +4212,25 @@
         <v>55</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W33" s="11" t="s">
         <v>99</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AB33" s="11" t="s">
         <v>144</v>
       </c>
       <c r="AC33" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AD33" s="0" t="n">
         <v>-6.3059455575344</v>
@@ -3938,7 +4241,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>106</v>
@@ -3953,28 +4256,28 @@
         <v>162</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W34" s="11" t="s">
         <v>60</v>
@@ -3983,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="AB34" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AC34" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AD34" s="0" t="n">
         <v>-6.17418223302207</v>
@@ -3997,7 +4300,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
@@ -4012,22 +4315,22 @@
         <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P35" s="0" t="s">
         <v>131</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="W35" s="11" t="s">
         <v>60</v>
@@ -4036,10 +4339,10 @@
         <v>10000</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AD35" s="0" t="n">
         <v>-6.30802872504027</v>
@@ -4050,7 +4353,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>137</v>
@@ -4071,19 +4374,19 @@
         <v>55</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="W36" s="11" t="s">
         <v>60</v>
@@ -4095,7 +4398,7 @@
         <v>61</v>
       </c>
       <c r="AC36" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AD36" s="0" t="n">
         <v>-6.30337267965868</v>
@@ -4106,7 +4409,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
@@ -4121,40 +4424,40 @@
         <v>78</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P37" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="W37" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AB37" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AC37" s="11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AD37" s="0" t="n">
         <v>-6.19090144672396</v>
@@ -4165,7 +4468,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>64</v>
@@ -4180,40 +4483,40 @@
         <v>162</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P38" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="W38" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AB38" s="11" t="s">
         <v>134</v>
       </c>
       <c r="AC38" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AD38" s="0" t="n">
         <v>-6.1384499467172</v>
@@ -4224,13 +4527,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>75</v>
@@ -4248,40 +4551,40 @@
         <v>129</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P39" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Z39" s="11" t="s">
         <v>189</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AB39" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AC39" s="11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AD39" s="0" t="n">
         <v>-6.19355188326362</v>
@@ -4292,7 +4595,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>64</v>
@@ -4316,40 +4619,40 @@
         <v>153</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P40" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="W40" s="11" t="s">
         <v>188</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AB40" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AC40" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AD40" s="0" t="n">
         <v>-6.17640183465515</v>
@@ -4360,7 +4663,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>137</v>
@@ -4381,43 +4684,43 @@
         <v>55</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="V41" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="X41" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AB41" s="11" t="s">
         <v>144</v>
       </c>
       <c r="AC41" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AD41" s="0" t="n">
         <v>-6.3042946731385</v>
@@ -4428,13 +4731,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -4449,22 +4752,22 @@
         <v>55</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="W42" s="11" t="s">
         <v>60</v>
@@ -4476,7 +4779,7 @@
         <v>159</v>
       </c>
       <c r="AC42" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AD42" s="0" t="n">
         <v>-6.29941606354961</v>
@@ -4487,7 +4790,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>137</v>
@@ -4508,19 +4811,19 @@
         <v>55</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="V43" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="W43" s="11" t="s">
         <v>60</v>
@@ -4532,7 +4835,7 @@
         <v>159</v>
       </c>
       <c r="AC43" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AD43" s="0" t="n">
         <v>-6.29918905557902</v>
@@ -4543,13 +4846,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>90</v>
@@ -4567,25 +4870,25 @@
         <v>175</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="W44" s="11" t="s">
         <v>99</v>
@@ -4597,7 +4900,7 @@
         <v>188</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AA44" s="9" t="s">
         <v>190</v>
@@ -4606,7 +4909,7 @@
         <v>126</v>
       </c>
       <c r="AC44" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AD44" s="0" t="n">
         <v>-6.20037495844248</v>
@@ -4617,7 +4920,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
@@ -4632,25 +4935,25 @@
         <v>53</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P45" s="0" t="s">
         <v>131</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="W45" s="11" t="s">
         <v>60</v>
@@ -4662,7 +4965,7 @@
         <v>144</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AD45" s="0" t="n">
         <v>-6.2393418780699</v>
@@ -4673,7 +4976,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>64</v>
@@ -4694,10 +4997,10 @@
         <v>55</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="W46" s="11" t="s">
         <v>60</v>
@@ -4706,7 +5009,7 @@
         <v>5000</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Z46" s="0" t="s">
         <v>189</v>
@@ -4718,7 +5021,7 @@
         <v>134</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AD46" s="0" t="n">
         <v>-6.30418456771596</v>
@@ -4729,7 +5032,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>64</v>
@@ -4744,22 +5047,22 @@
         <v>53</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>147</v>
+        <v>458</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="W47" s="11" t="s">
         <v>306</v>
@@ -4777,10 +5080,10 @@
         <v>307</v>
       </c>
       <c r="AB47" s="11" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AD47" s="0" t="n">
         <v>-6.17222481141279</v>
@@ -4791,7 +5094,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>64</v>
@@ -4812,25 +5115,25 @@
         <v>55</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="W48" s="11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="X48" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AB48" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AC48" s="11" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AD48" s="0" t="n">
         <v>-6.30034768893479</v>
@@ -4841,7 +5144,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>64</v>
@@ -4862,10 +5165,10 @@
         <v>55</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="W49" s="11" t="s">
         <v>60</v>
@@ -4877,7 +5180,7 @@
         <v>144</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AD49" s="0" t="n">
         <v>-6.30521410272485</v>
@@ -4888,7 +5191,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
@@ -4909,22 +5212,22 @@
         <v>201</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>60</v>
@@ -4933,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AC50" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AD50" s="0" t="n">
         <v>-6.1669512894793</v>
@@ -4947,7 +5250,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>106</v>
@@ -4962,13 +5265,13 @@
         <v>37</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P51" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="W51" s="11" t="s">
         <v>60</v>
@@ -4977,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="11" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AD51" s="0" t="n">
         <v>-6.20462964280586</v>
@@ -4991,7 +5294,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>106</v>
@@ -5006,34 +5309,34 @@
         <v>53</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P52" s="0" t="s">
         <v>131</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="W52" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AB52" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AD52" s="0" t="n">
         <v>-6.23169896306931</v>
@@ -5044,7 +5347,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>64</v>
@@ -5059,13 +5362,13 @@
         <v>53</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P53" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="W53" s="11" t="s">
         <v>304</v>
@@ -5074,10 +5377,10 @@
         <v>305</v>
       </c>
       <c r="AB53" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AD53" s="0" t="n">
         <v>-6.13520026432625</v>
@@ -5088,7 +5391,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>32</v>
@@ -5103,46 +5406,46 @@
         <v>53</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P54" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="W54" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Z54" s="11" t="s">
         <v>189</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AB54" s="11" t="s">
         <v>126</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AD54" s="0" t="n">
         <v>-6.13421820441045</v>
@@ -5153,7 +5456,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>246</v>
@@ -5174,13 +5477,13 @@
         <v>55</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="W55" s="11" t="s">
         <v>60</v>
@@ -5192,7 +5495,7 @@
         <v>159</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AD55" s="0" t="n">
         <v>-6.30574271489993</v>
@@ -5203,13 +5506,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>90</v>
@@ -5227,28 +5530,28 @@
         <v>175</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P56" s="0" t="s">
         <v>39</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="V56" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="W56" s="11" t="s">
         <v>99</v>
@@ -5269,7 +5572,7 @@
         <v>126</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AD56" s="0" t="n">
         <v>-6.18379952050197</v>
@@ -5280,7 +5583,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>32</v>
@@ -5295,43 +5598,43 @@
         <v>53</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P57" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="W57" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="X57" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Y57" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Z57" s="11" t="s">
         <v>189</v>
       </c>
       <c r="AA57" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AD57" s="0" t="n">
         <v>-6.18796452926196</v>
@@ -5342,7 +5645,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>64</v>
@@ -5363,13 +5666,13 @@
         <v>55</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="W58" s="11" t="s">
         <v>60</v>
@@ -5378,10 +5681,10 @@
         <v>5000</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AD58" s="0" t="n">
         <v>-6.30331509392487</v>
@@ -5392,7 +5695,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
@@ -5407,25 +5710,25 @@
         <v>53</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P59" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="V59" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="W59" s="11" t="s">
         <v>60</v>
@@ -5434,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AD59" s="0" t="n">
         <v>-6.16770993445603</v>
@@ -5448,7 +5751,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>298</v>
@@ -5469,28 +5772,28 @@
         <v>55</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="W60" s="11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="X60" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AB60" s="11" t="s">
         <v>144</v>
       </c>
       <c r="AC60" s="11" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AD60" s="0" t="n">
         <v>-6.30491375819847</v>
@@ -5501,7 +5804,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
@@ -5516,31 +5819,31 @@
         <v>53</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P61" s="0" t="s">
         <v>165</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="W61" s="11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="X61" s="9" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB61" s="11" t="s">
         <v>134</v>
       </c>
       <c r="AC61" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AD61" s="0" t="n">
         <v>-6.13490616619183</v>
@@ -5551,7 +5854,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>137</v>
@@ -5590,22 +5893,22 @@
         <v>55</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="V62" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="W62" s="11" t="s">
         <v>60</v>
@@ -5617,7 +5920,7 @@
         <v>144</v>
       </c>
       <c r="AC62" s="11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AD62" s="0" t="n">
         <v>-6.30221876193348</v>
@@ -5635,4 +5938,333 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="19" t="n">
+        <v>-6.14695017338058</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="19" t="n">
+        <v>106.840289461744</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="27"/>
+      <c r="F28" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -2246,20 +2246,20 @@
   </sheetPr>
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="U34" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="topRight" activeCell="U47" activeCellId="0" sqref="U47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="X32" activeCellId="0" sqref="X32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="44.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="23.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.99"/>
@@ -2267,24 +2267,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="38.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="22.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="20.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="117.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="41.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="67.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="67.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="105.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="59.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="59.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="6" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="6" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="6" width="58.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="135.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="29.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,7 +5931,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -5951,11 +5951,11 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>

--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -308,7 +308,7 @@
     <t xml:space="preserve">07:00</t>
   </si>
   <si>
-    <t xml:space="preserve">00:00</t>
+    <t xml:space="preserve">24:00</t>
   </si>
   <si>
     <t xml:space="preserve">Jl. Tugu Monas, Gambir, Jakarta Pusat, DKI Jakarta</t>
@@ -2247,19 +2247,19 @@
   <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="AB1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X32" activeCellId="0" sqref="X32"/>
+      <selection pane="topRight" activeCell="AB18" activeCellId="0" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="44.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="23.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.99"/>
@@ -5931,8 +5931,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5951,7 +5951,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.14"/>
@@ -6261,10 +6261,10 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="572">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1737,177 +1736,6 @@
   </si>
   <si>
     <t xml:space="preserve">46.2, 11.9, 24.1, 24, 5.8, 16.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM Translation = E53 Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P87 is identified by (identifies) E41 Place Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type (is type of) E55 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P89 falls within (contains) E53 Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P87 is identified by (identifies) E45 Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P87 is identified by (identifies) E47 Spatial Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1 is identified by (identifies) E51 Contact Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://…..com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule (category)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule 1, Schedule 2, Schedule 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senin, Selasa, … , Minggu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type (is type of) E55 Type P45 consists of (is incorporated in) E49 Time Appellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pameran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type (is type of) E55 Type P45 consists of (is incorporated in) E49 Time Appellation P1 is identified by (identifies) E41 Appellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type (is type of) E55 Type P45 consists of (is incorporated in) E49 Time Appellation P81 ongoing throughout E52 Time-Span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket 1, Ticket 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisatawan Mancanegara, … , Pelajar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type (is type of) E55 Type P2 has type (is type of) E55 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type (is type of) E55 Type P2 has type (is type of) E55 Type P1 is identified by (identifies) E41 Appellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket Price</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">P2 has type (is type of) E55 Type P2 has type (is type of) E55 Type P90 has value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">E60 Number</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandara Halim, … , Terminal Senen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type E55 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportation Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 has type E55 Type P90 has value E60 Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject to Change</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1749,7 @@
     <numFmt numFmtId="167" formatCode="hh:mm"/>
     <numFmt numFmtId="168" formatCode="[$-421]hh:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1952,64 +1780,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -2041,7 +1826,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2090,82 +1875,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2192,7 +1901,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2227,7 +1936,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2249,10 +1958,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="AB1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AB18" activeCellId="0" sqref="AB18"/>
+      <selection pane="topRight" activeCell="AB9" activeCellId="0" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.86"/>
@@ -5938,333 +5647,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="B6" s="19" t="n">
-        <v>-6.14695017338058</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="B7" s="19" t="n">
-        <v>106.840289461744</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="26"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="27"/>
-      <c r="F28" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="30"/>
-      <c r="F30" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>622</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C18:C19"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/datasets/raw_dataset.xlsx
+++ b/datasets/raw_dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\museum_recsys_chatbot\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reykim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E9FC51-BF7B-46BF-976C-B70906AA7816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +174,6 @@
     <t>26.9, 0.75, 3.2, 4.4, 5.7</t>
   </si>
   <si>
-    <t>Bayt Al-Qur’an dan Museum Istiqlal</t>
-  </si>
-  <si>
     <t>Agama</t>
   </si>
   <si>
@@ -410,9 +408,6 @@
     <t>39.8, 9.2, 3.9, 6.1, 18.3, 5.6</t>
   </si>
   <si>
-    <t>Museum Al-Qur’an</t>
-  </si>
-  <si>
     <t>13:00</t>
   </si>
   <si>
@@ -758,9 +753,6 @@
     <t>18, 11, 6.6, 5.1, 14, 10</t>
   </si>
   <si>
-    <t>Museum Fauna Indonesia “Komodo” dan Taman Reptilia</t>
-  </si>
-  <si>
     <t>Fauna</t>
   </si>
   <si>
@@ -914,9 +906,6 @@
     <t>2.6, 3.8, 4</t>
   </si>
   <si>
-    <t>Museum Joang ‘45</t>
-  </si>
-  <si>
     <t>Transportasi</t>
   </si>
   <si>
@@ -1007,9 +996,6 @@
     <t>15, 1, 1</t>
   </si>
   <si>
-    <t>Museum Kehutanan “Ir. Djamaludin Suryohadikusumo”</t>
-  </si>
-  <si>
     <t>Kompleks Manggala Wanabakti, RT.01/03, Gelora, Tanahabang</t>
   </si>
   <si>
@@ -1646,9 +1632,6 @@
     <t>11, 23, 21, 5</t>
   </si>
   <si>
-    <t>Museum Tragedi 12 Mei ’98 Universitas Trisakti</t>
-  </si>
-  <si>
     <t>Jl. Kyai Tapa No.1, RT.6/RW.16, Tomang, Grogol Petamburan</t>
   </si>
   <si>
@@ -1751,9 +1734,6 @@
     <t>Art: 1 New Museum merupakan museum khusus yang awalnya berupa galeri seni pribadi bernama Mon Décor. Galeri seni ini didirikan oleh Martha Gunawan pada 1983, kemudian berganti nama menjadi Art:1 New Museum pada tahun 2009, dan diresmikan pada tahun 2011 oleh Gubernur Daerah Khusus Ibukota (DKI) Jakarta, Fauzi Bowo. Art:1 New Museum tidak hanya berupa museum namun juga berupa art space, sekaligus institusi seni. Museum berada di bawah kepemilikan dan pengelolaan Mon Décor Gallery.</t>
   </si>
   <si>
-    <t>Museum Bayt Al-Qur’an dan Museum Istiqlal merupakan museum khusus yang pendiriannya diprakarsai oleh Dr. H. Tarmizi Taher pada tahun 1994 ketika beliau menjabat sebagai Menteri Agama. Pada mulanya dibutuhkan tempat untuk menyimpan Al-Qur’an besar hadiah dari Pondok Pesantren dan Mushaf (Al-Qur’an) Istiqlal yang ditulis dengan ragam hias 27 Provinsi di Indonesia. Atas dasar tersebut maka dibangunlah Bayt Al-Qur’an (Rumah Al-Qur’an) sebagai tempat menyimpan, memelihara, dan memamerkan mushaf Al-Qur’an dari berbagai macam bentuk dan jenis di seluruh penjuru Nusantara.</t>
-  </si>
-  <si>
     <t>Gedung Galeri Foto Jurnalistik Antara merupakan kantor berita swasta milik Dominique Willem Berretty, seorang berkebangsaan Belanda. Kantor berita tersebut bernama Algemeen Niewsen Telegraaf Agentschap (ANETA). Kantor berita tersebut sangat eksis sampai Jepang berkuasa atas Indonesia pada tahun 1942. Masa pendudukan Jepang, ANETA dinasionalisasi menjadi milik Jepang. ANETA pun beralih nama menjadi YASHIMA (DOMEI). Pasca kekalahan Jepang dari sekutu pada Perang Dunia II, tepatnya pada 17 Agustus 1945, berkumandanglah Proklamasi Kemerdekaan Republik Indonesia di Jakarta.</t>
   </si>
   <si>
@@ -1766,9 +1746,6 @@
     <t>Monumen Pancasila Sakti merupakan museum khusus yang berada di bawah kepemilikan TNI dan dikelola oleh Pusat Sejarah TNI. Perjuangan Angkatan Bersenjata Republik Indonesia (ABRI), khususnya Tentara NasionaI Indonesia Angkatan Darat (TNI-AD) dalam mempertahankan Pancasila sebagai ideologi negara dan bangsa, menjadikan Partai Komunis Indonesia (PKI) semakin memusuhi TNI-AD. Akhirnya PKI melakukan penculikan dan pembunuhan terhadap beberapa Perwira Tinggi TNI-AD dalam peristiwa G30S/PKI pada tanggal 1 Oktober 1965. Perwira-perwira tersebut dibunuh, kemudian jenazahnya dikubur dalam sebuah sumur di Desa Lubang Buaya, Jakarta Timur.</t>
   </si>
   <si>
-    <t>Museum Al-Qur’an merupakan museum khusus yang berdiri sejak tahun 1969, berawal dari koleksi pribadi pengurus Yayasan Pendidikan Al-Qur’an di Kebayoran Baru. Seiring waktu koleksi tersebut berpindah ke Lebak Bulus dan pengelolaan diberikan kepada Perguruan Tinggi Ilmu Al-Qur’an (PTIQ). Museum Al-Qur’an didirikan pada Sabtu, 24 Juli 1971 Masehi bertepatan dengan 29 Rajab 1391 Hijriyah.</t>
-  </si>
-  <si>
     <t>Museum Asmat merupakan museum khusus yang pendiriannya digagas oleh Ibu Tien Soeharto. Saat mengunjungi Pameran Produksi Indonesia pada bulan Agustus 1985, Ibu Tien Soeharto kagum akan seni kerajinan Asmat. Kekaguman tersebut memunculkan ide untuk mengabadikan seni kerajinan Asmat di dalam bangunan museum. Pada akhir bulan Februari 1986 dimulailah pembangunan Museum Asmat dengan waktu pengerjaan 51 hari. Museum Asmat resmi dibuka pada 20 April 1986 oleh Presiden Republik Indonesia Ke-2, Soeharto. Bangunan museum berada di dekat danau yang dimaksudkan untuk mendekatkan imajinasi pengunjung bahwa wilayah Asmat dekat dengan perairan seperti lokasi aslinya yang dikelilingi laut dan sungai-sungai. Arsitektur museum mengambil ide dari Rumah Adat Kariwari dari Suku Tobati-Enggros untuk mewakili kebudayaan Papua.</t>
   </si>
   <si>
@@ -1802,15 +1779,9 @@
     <t>Museum DPR RI merupakan museum khusus yang pendiriannya dimulai pada keanggotaan Dewan Perwakilan Rakyat Repubik Indonesia (DPR RI) Periode Tahun 1987-1992. Pembentukan Museum DPR RI dimulai dengan membentuk Yayasan Museum DPR RI yang diketuai oleh Dr. HJ. Naro, S.H. dan sebagai awal yang dilakukan oleh yayasan adalah membuat perencanaan gedung Museum DPR RI melalui pembentukan Tim Museum DPR RI dengan tugas mengumpulkan koleksi baik yang berupa naskah, foto, maupun benda yang terkait dengan sejarah DPR RI sejak zaman penjajahan Belanda (Volksraad) sampai sekarang.</t>
   </si>
   <si>
-    <t>Museum Fauna Indonesia “Komodo” dan Taman Reptilia (MFIK &amp; TR) merupakan museum khusus yang dibangun pada tahun 1975 dan diresmikan pada 20 April 1978. MFIK &amp; TR ini merupakan museum pertama di Kawasan Taman Mini Indonesia Indah (TMII). Pembangunan museum ini bertujuan untuk mengenalkan satwa asli Indonesia dalam bentuk sudah diawetkan. Konsep edukasi di museum ini mengarahkan pada pengembangan makna dan nilai-nilai yang terkandung di dalam setiap koleksi. Edukasi ditujukan mengenalkan spesimen satwa peraganya yang memiliki nilai ilmiah yang sangat penting untuk diketahui masyarakat.</t>
-  </si>
-  <si>
     <t>Museum FKUI-Indonesia Museum of Health and Medicine atau iMuseum merupakan museum khusus yang diresmikan pada tanggal 14 September 2017 oleh Menteri Koordinator Bidang Pembangunan Manusia dan Kebudayaan Republik Indonesia, Puan Maharani. Museum ini difungsikan sebagai museum rujukan nasional mengenai pembelajaran dan pendidikan di bidang kesehatan dan kedokteran. Pembangunan museum ini juga merupakan pengabdian kepada masyarakat dari Fakultas Kedokteran Universitas Indonesia di bidang pendidikan kesehatan dan ilmu kedokteran.</t>
   </si>
   <si>
-    <t>Museum Graha Widya Patra (Minyak dan Gas Bumi) merupakan museum khusus berada di bawah kepemilikan dan pengelolaan Kementerian Energi dan Sumber Daya Mineral Republik Indonesia (Kementerian ESDM). Minyak dan gas (migas) merupakan hal yang penting dalam perkembangan bangsa Indonesia. Migas merupakan alasan bangsa lain datang ke Indonesia selain mencari rempah. Di seminar dalam rangka memperingati 100 tahun pengusahaan migas di Indonesia, muncul gagasan mendirikan sebuah museum dan pusat ilmiah migas yang diberi nama Graha Widya Patra sebagai media publikasi mengenai ilmu pengetahuan dan segala aspeknya tentang migas. Pada tahun 1987 dibangunlah museum tersebut di TMII. Dalam perjalanan pembangunan museum muncul perubahan nama museum menjadi Museum Minyak dan Gas Bumi “Graha Widya Patra”. Pada tahun 1989, museum diresmikan oleh Presiden Republik Indonesia Ke-2, Soeharto. Pada tahun 1993, museum menambah Anjung Proses, Aplikasi dan Dampak sebagai tempat informasi proses, aplikasi, dan dampak migas.</t>
-  </si>
-  <si>
     <t>Museum Hakka Indonesia merupakan museum khusus yang diresmikan pada tahun 2014. Museum Hakka Indonesia dibangun untuk menyampaikan kisah sejarah perjuangan nenek moyang orang Hakka yang meninggalkan kampung halamannya di Cina Selatan karena bencana alam atau peperangan dan memberikan inspirasi bagi generasi muda. Saat merantau mereka bekerja sebagai kuli tambang, buruh perkebunan, petani, atau pedagang kecil. Banyak dari mereka yang berhasil dan kemudian memberikan kontribusi bagi perkembangan dan pembangunan ekonomi setempat.</t>
   </si>
   <si>
@@ -1823,18 +1794,12 @@
     <t>Museum Jenderal Besar Dr. A.H. Nasution merupakan museum khusus yang diresmikan oleh Presiden Republik Indonesia Ke-7, Susilo Bambang Yudhoyono pada 3 Desember 2008, bertepatan dengan Hari Kelahiran Dr. A. H. Nasution. Museum ini menceritakan mengenai perisiwa terjadinya G30S/PKI yang menewaskan anak A.H. Nasution, Ade Irma Suryani dan ajudan jenderal, Lettu Czi Piere Andreas Tendean, serta upaya penculikan dan pembunuhan Dr. A.H. Nasution yang gagal dilakukan. Rumah tersebut sebelum dijadikan sebagai kediaman Dr. A.H. Nasution merupakan tempat tinggal pegawai Gubernur Jenderal Belanda yang dibangun pada tahun 1923. Pegawai Gubernur Jenderal Belanda yang saat itu menempati merupakan mertua Dr. A.H. Nasution.</t>
   </si>
   <si>
-    <t>Museum Joang ’45 merupakan museum khusus yang didirikan di bekas hotel. Pada tahun 1938, seorang pengusaha Belanda bernama L.C. Schomper mendirikan sebuah hotel yang bernama Schomper 1 di daerah Menteng Raya. Hotel ini dibangun khusus bagi pejabat tinggi Belanda, pengusaha asing dan pejabat pribumi. Ketika Jepang menjajah Indonesia, Hotel Schomper 1 dikuasai oleh pemuda Indonesia dan dijadikan asrama dan tempat pendidikan nasionalisme para pemuda Indonesia. Ir. Soekarno, Drs. Mohammad Hatta, Adam Malik, Chaerul Saleh dan sejumlah tokoh Indonesia lainnya merupakan tokoh-tokoh yang terlibat dalam pendidikan pemuda yang memperjuangkan kemerdekaan Indonesia.</t>
-  </si>
-  <si>
     <t>Museum Katedral merupakan museum khusus yang menempati balkon Gereja Katedral. Balkon ini sebelumnya dimanfaatkan untuk paduan suara. Gagasan pendirian museum berasal dari Pastor Rudolphus Kurris, SJ. Ketika pada tahun 1988 dilakukan pemugaran menyeluruh, Kurris menemukan harta gereja yang berantakan dan nyaris hancur. Kepedulian Kurris pada benda-benda bersejarah berdampak pada timbul gagasannya untuk menyimpan peninggalan-peninggalan tersebut di tempat yang layak. Ia beralasan bahwa warisan-warisan tersebut dapat membangkitkan rasa kagum terhadap masa lalu, bahkan dapat menyalurkan pengetahuan iman Katolik untuk generasi-generasi selanjutnya. Gagasan Kurris baru terwujud pada tanggal 28 April 1991. Museum Katedral pun diresmikan oleh Ketua Konferensi Wali Gereja Indonesia (KWI) Mgr. Julius Darmaatmadja. Museum berada di bawah kepemilikan dan pengelolaan Paroki Gereja Katedral.</t>
   </si>
   <si>
     <t>Museum Kebangkitan Nasional merupakan museum umum yang didirikan sebagai sarana informasi yang berkaitan dengan sejarah masa perjuangan Indonesia. Museum ini memberi informasi tentang kegiatan-kegiatan dalam mencapai kemerdekaan dan memiliki keterkaitan dengan bangunan museum, seperti pendirian Boedi Oetomo. Karena memiliki nilai sejarah yang tinggi, berkaitan dengan kelahiran Boedi Oetomo pada 20 Mei 1908, pada tahun 1948 ditetapkan sebagai Hari Kebangkitan Nasional. Selain sebagai saksi berdirinya organisasi Boedi Oetomo, gedung museum ini juga menjadi saksi lahirnya organisasi-organisasi lain, seperti Trikoro Dharmo (Jong Java), Jong Minahasa, dan Jong Ambon.</t>
   </si>
   <si>
-    <t>Museum Kehutanan “Ir. Djamaludin Suryohadikusumo” merupakan museum khusus yang menjadi satu-satunya museum di Provinsi DKI Jakarta dengan tema kehutanan. Museum pertama kali diresmikan pada 24 Agustus 1983 dengan nama Museum Kehutanan Manggala Wanabakti. Pada 5 Juni 2015, nama museum diganti menjadi Museum Kehutanan Ir. Djamaludin Suryohadikusumo di bawah kepemilikan dan pengelolaan Kementerian Lingkungan Hidup dan Kehutanan Repubik Indonesia.</t>
-  </si>
-  <si>
     <t>Museum Keprajuritan merupakan museum khusus yang diresmikan oleh Presiden Republik Indonesia Ke-2, Soeharto pada 5 Juli 1987. Museum yang berbentuk benteng persegi lima ini merupakan museum yang dikelola oleh Pusat Sejarah TNI. Konsep museum ini bertujuan untuk menggambarkan sejarah perjuangan bangsa Indonesia pada abad ke-7 sampai abad ke-19. Setiap sisi bangunan memiliki makna yang menggambarkan Indonesia. Persegi lima menunjukan dasar negara Pancasila. Menara atau yang biasa disebut sebagai bastion memiliki arti kewaspadaan nasional demi dan untuk keutuhan Negara Kesatuan Republik Indonesia.</t>
   </si>
   <si>
@@ -1868,9 +1833,6 @@
     <t>Museum Penerangan merupakan museum khusus yang diresmikan oleh Presiden Republik Indonesia Ke-2, Soeharto pada 20 April 1993. Museum ini dibangun atas dasar pemikiran bahwa perjuangan bangsa Indonesia sejak zaman sebelum kemerdekaan sampai sekarang tidak lepas dari peran yang dilakukan oleh kegiatan penerangan. Peran yang dilakukan oleh penerangan dengan menggunakan media massa serta organisasi yang sederhana perlu didokumentasikan dan diabadikan dalam satu museum.</t>
   </si>
   <si>
-    <t>Bangunan museum yang sekarang menjadi museum ini dibangun pada tahun 1927 oleh Asuransi Nillmij yang dirancang oleh Johan Frederik Lodewijk Blankenberg, dengan fungsi sebagai kediaman resmi konsulat Kerajaan Inggris ini merupakan salah satu dari empat rumah tinggal besar di sekitar Taman Surapati (Kediaman Duta Besar Amerika Serikat, Rumah Dinas Gubernur DKI, dan Rumah Tuan Koch (telah dibongkar)) yang dirancang oleh arsitek yang sama. Rumah ini merupakan salah satu bangunan yang berada di daerah yang dirancang sebagai “kota taman” (garden city) pertama di Indonesia oleh Belanda pada tahun 1910. Sebagai sebuah kota taman, pada mulanya daerah Menteng memiliki ruangruang luar yang luas. Antara bangunan dan lingkungan tampak menyatu, serta tidak dibatasi dengan pagar-pagar yang tinggi. Bangunan-bangunan yang dibangun pada kota ini terdiri dari bangunan rumah tinggal dan bangunan fasilitas penunjang misalnya sekolah, kantor, gereja, dan toko.</t>
-  </si>
-  <si>
     <t>Museum POLRI merupakan museum khusus yang menjadi salah satu museum dengan konsep experience atau konsep yang memperbolehkan pengunjung untuk mengalami dan merasakan layaknya polisi. Pengunjung dapat menggunakan benda-benda atau alat transportasi yang digunakan oleh polisi. Di museum ini pengunjung dapat melihat sejarah terbentuknya Polisi Republik Indonesia (POLRI). Konsep polisi sudah digunakan pada masa Kerajaan Majapahit yang membentuk Pasukan Bhayangkara Andhika yang bertugas untuk menjaga keamanan kota dan Pasukan Bhayangkara Lelana yang bertugas menjaga keamanan daerah. Di masa VOC juga sudah dikenal konsep polisi yang menggunakan nama kaffers (penjaga penjahat), ratelwatch (penjaga malam), dan landdrost (penjaga luar Batavia). Selain sejarah terbentuknya POLRI, museum ini juga menampilkan kasus-kasus terbaru yang ditangani oleh POLRI, baik di kota maupun di daerah terpencil.</t>
   </si>
   <si>
@@ -1910,12 +1872,6 @@
     <t>Museum Tekstil merupakan museum khusus yang didirikan pada tahun 1976 atas prakarsa Gubernur Ali Sadikin. Museum Tekstil merupakan lembaga pendidikan kebudayaan, memiliki misi untuk melestarikan tekstil tradisional sebagai upaya untuk meningkatkan apresiasi masyarakat terhadap tradisi tekstil Indonesia dan partisipasi dalam pelestarian warisan nasional. Museum Tekstil selalu berusaha menginformasikan dan mendidik orang melalui pameran, seminar, workshop, penelitian dan publikasi.</t>
   </si>
   <si>
-    <t>Museum Timor Timur merupakan museum khusus yang terletak di sebelah utara Istana Anak-Anak Indonesia, menghadap ke selatan, ke arah Museum Prangko Indonesia serta Museum Fauna Indonesia “Komodo” dan Taman Reptilia. Semula museum ini merupakan sebuah anjungan yang dibangun pada tahun 1979 dan diresmikan tanggal 20 April 1980 oleh Presiden Soeharto. Setelah Provinsi Timor Timur memisahkan diri dengan Negara Kesatuan Republik Indonesia, anjungan Timor Timur kemudian menjadi suatu monumen dan menjadi tanggungjawab Taman Mini Indonesia Indah (TMII).</t>
-  </si>
-  <si>
-    <t>Museum Tragedi 12 Mei ‘98 Universitas Trisakti merupakan museum khusus yang diresmikan pada tahun 1999. Museum ini dirancang oleh Tim Universitas Trisakti yang diketuai Dr. Ing. Eka Sediadi Rasyad yang saat itu menjabat sebagai Dekan Fakultas Teknik Sipil dan Perencanaan (FTSP) Universitas Trisakti. Museum Tragedi 12 Mei ’98 Universitas Trisakti didirikan sebagai perwujudan peran aktif mahasiswa Trisakti dalam memperjuangkan demokrasi dan hak asasi manusia.</t>
-  </si>
-  <si>
     <t>Museum Transportasi merupakan museum khusus yang diresmikan pada 20 April 1991 oleh Presiden Republik Indonesia Ke-2, Soeharto. Awalnya museum ini hanya direncanakan menjadi Museum Kereta Api, namun berubah menjadi Museum Transportasi sebagai tujuan mengumpulkan, memelihara, meneliti, dan memamerkan bukti sejarah, dan perkembangan transportasi serta perannya dalam pembangunan nasional. Selain itu, museum ini juga diharapkan dapat memberikan tambahan pengetahuan kepada pengunjung mengenai sejarah perkembangan teknologi transportasi sekaligus sebagai tempat rekreasi yang edukatif.</t>
   </si>
   <si>
@@ -1923,12 +1879,57 @@
   </si>
   <si>
     <t>Pusat Peragaan IPTEK merupakan museum khusus yang pendiriannya diprakarsai oleh B.J. Habibie pada tahun 1984. Pada tahun 1991, Pusat Peragaan Ilmu Pengetahuan dan Teknologi (PP IPTEK) resmi dibuka oleh Presiden Republik Indonesia Ke-2, Soeharto, namun masih menggunakan bangunan sementara di Terminal B Skylift-TMII. Baru pada tahun 1995 PP IPTEK menempati bangunan permanen di Kawasan Taman Mini Indonesia Indah (TMII). Bangunan museum yang dibangun dengan desain futuristik diharapkan dapat mengembangkan IPTEK di masa depan dan menjelajah tanpa batas. Alat peraga yang saat ini dipamerkan sudah berjumlah 317 dan merupakan hasil dari ciptaan tenaga ahli dari Puslitbang KIM-LIPI, LUK BPPT, BATAN, dan dari industri strategis dan IBM.</t>
+  </si>
+  <si>
+    <t>Bayt Al-Qur'an dan Museum Istiqlal</t>
+  </si>
+  <si>
+    <t>Museum Al-Qur'an</t>
+  </si>
+  <si>
+    <t>Museum Joang '45</t>
+  </si>
+  <si>
+    <t>Museum Fauna Indonesia 'Komodo' dan Taman Reptilia</t>
+  </si>
+  <si>
+    <t>Museum Fauna Indonesia 'Komodo' dan Taman Reptilia (MFIK &amp; TR) merupakan museum khusus yang dibangun pada tahun 1975 dan diresmikan pada 20 April 1978. MFIK &amp; TR ini merupakan museum pertama di Kawasan Taman Mini Indonesia Indah (TMII). Pembangunan museum ini bertujuan untuk mengenalkan satwa asli Indonesia dalam bentuk sudah diawetkan. Konsep edukasi di museum ini mengarahkan pada pengembangan makna dan nilai-nilai yang terkandung di dalam setiap koleksi. Edukasi ditujukan mengenalkan spesimen satwa peraganya yang memiliki nilai ilmiah yang sangat penting untuk diketahui masyarakat.</t>
+  </si>
+  <si>
+    <t>Museum Graha Widya Patra (Minyak dan Gas Bumi) merupakan museum khusus berada di bawah kepemilikan dan pengelolaan Kementerian Energi dan Sumber Daya Mineral Republik Indonesia (Kementerian ESDM). Minyak dan gas (migas) merupakan hal yang penting dalam perkembangan bangsa Indonesia. Migas merupakan alasan bangsa lain datang ke Indonesia selain mencari rempah. Di seminar dalam rangka memperingati 100 tahun pengusahaan migas di Indonesia, muncul gagasan mendirikan sebuah museum dan pusat ilmiah migas yang diberi nama Graha Widya Patra sebagai media publikasi mengenai ilmu pengetahuan dan segala aspeknya tentang migas. Pada tahun 1987 dibangunlah museum tersebut di TMII. Dalam perjalanan pembangunan museum muncul perubahan nama museum menjadi Museum Minyak dan Gas Bumi 'Graha Widya Patra'. Pada tahun 1989, museum diresmikan oleh Presiden Republik Indonesia Ke-2, Soeharto. Pada tahun 1993, museum menambah Anjung Proses, Aplikasi dan Dampak sebagai tempat informasi proses, aplikasi, dan dampak migas.</t>
+  </si>
+  <si>
+    <t>Museum Kehutanan 'Ir. Djamaludin Suryohadikusumo'</t>
+  </si>
+  <si>
+    <t>Museum Kehutanan 'Ir. Djamaludin Suryohadikusumo' merupakan museum khusus yang menjadi satu-satunya museum di Provinsi DKI Jakarta dengan tema kehutanan. Museum pertama kali diresmikan pada 24 Agustus 1983 dengan nama Museum Kehutanan Manggala Wanabakti. Pada 5 Juni 2015, nama museum diganti menjadi Museum Kehutanan Ir. Djamaludin Suryohadikusumo di bawah kepemilikan dan pengelolaan Kementerian Lingkungan Hidup dan Kehutanan Repubik Indonesia.</t>
+  </si>
+  <si>
+    <t>Bangunan museum yang sekarang menjadi museum ini dibangun pada tahun 1927 oleh Asuransi Nillmij yang dirancang oleh Johan Frederik Lodewijk Blankenberg, dengan fungsi sebagai kediaman resmi konsulat Kerajaan Inggris ini merupakan salah satu dari empat rumah tinggal besar di sekitar Taman Surapati (Kediaman Duta Besar Amerika Serikat, Rumah Dinas Gubernur DKI, dan Rumah Tuan Koch (telah dibongkar)) yang dirancang oleh arsitek yang sama. Rumah ini merupakan salah satu bangunan yang berada di daerah yang dirancang sebagai 'kota taman' (garden city) pertama di Indonesia oleh Belanda pada tahun 1910. Sebagai sebuah kota taman, pada mulanya daerah Menteng memiliki ruangruang luar yang luas. Antara bangunan dan lingkungan tampak menyatu, serta tidak dibatasi dengan pagar-pagar yang tinggi. Bangunan-bangunan yang dibangun pada kota ini terdiri dari bangunan rumah tinggal dan bangunan fasilitas penunjang misalnya sekolah, kantor, gereja, dan toko.</t>
+  </si>
+  <si>
+    <t>Museum Timor Timur merupakan museum khusus yang terletak di sebelah utara Istana Anak-Anak Indonesia, menghadap ke selatan, ke arah Museum Prangko Indonesia serta Museum Fauna Indonesia 'Komodo' dan Taman Reptilia. Semula museum ini merupakan sebuah anjungan yang dibangun pada tahun 1979 dan diresmikan tanggal 20 April 1980 oleh Presiden Soeharto. Setelah Provinsi Timor Timur memisahkan diri dengan Negara Kesatuan Republik Indonesia, anjungan Timor Timur kemudian menjadi suatu monumen dan menjadi tanggungjawab Taman Mini Indonesia Indah (TMII).</t>
+  </si>
+  <si>
+    <t>Museum Tragedi 12 Mei '98 Universitas Trisakti</t>
+  </si>
+  <si>
+    <t>Museum Joang '45 merupakan museum khusus yang didirikan di bekas hotel. Pada tahun 1938, seorang pengusaha Belanda bernama L.C. Schomper mendirikan sebuah hotel yang bernama Schomper 1 di daerah Menteng Raya. Hotel ini dibangun khusus bagi pejabat tinggi Belanda, pengusaha asing dan pejabat pribumi. Ketika Jepang menjajah Indonesia, Hotel Schomper 1 dikuasai oleh pemuda Indonesia dan dijadikan asrama dan tempat pendidikan nasionalisme para pemuda Indonesia. Ir. Soekarno, Drs. Mohammad Hatta, Adam Malik, Chaerul Saleh dan sejumlah tokoh Indonesia lainnya merupakan tokoh-tokoh yang terlibat dalam pendidikan pemuda yang memperjuangkan kemerdekaan Indonesia.</t>
+  </si>
+  <si>
+    <t>Museum Al-Qur'an merupakan museum khusus yang berdiri sejak tahun 1969, berawal dari koleksi pribadi pengurus Yayasan Pendidikan Al-Qur'an di Kebayoran Baru. Seiring waktu koleksi tersebut berpindah ke Lebak Bulus dan pengelolaan diberikan kepada Perguruan Tinggi Ilmu Al-Qur'an (PTIQ). Museum Al-Qur'an didirikan pada Sabtu, 24 Juli 1971 Masehi bertepatan dengan 29 Rajab 1391 Hijriyah.</t>
+  </si>
+  <si>
+    <t>Museum Tragedi 12 Mei '98 Universitas Trisakti merupakan museum khusus yang diresmikan pada tahun 1999. Museum ini dirancang oleh Tim Universitas Trisakti yang diketuai Dr. Ing. Eka Sediadi Rasyad yang saat itu menjabat sebagai Dekan Fakultas Teknik Sipil dan Perencanaan (FTSP) Universitas Trisakti. Museum Tragedi 12 Mei '98 Universitas Trisakti didirikan sebagai perwujudan peran aktif mahasiswa Trisakti dalam memperjuangkan demokrasi dan hak asasi manusia.</t>
+  </si>
+  <si>
+    <t>Museum Bayt Al-Qur'an dan Museum Istiqlal merupakan museum khusus yang pendiriannya diprakarsai oleh Dr. H. Tarmizi Taher pada tahun 1994 ketika beliau menjabat sebagai Menteri Agama. Pada mulanya dibutuhkan tempat untuk menyimpan Al-Qur'an besar hadiah dari Pondok Pesantren dan Mushaf (Al-Qur'an) Istiqlal yang ditulis dengan ragam hias 27 Provinsi di Indonesia. Atas dasar tersebut maka dibangunlah Bayt Al-Qur'an (Rumah Al-Qur'an) sebagai tempat menyimpan, memelihara, dan memamerkan mushaf Al-Qur'an dari berbagai macam bentuk dan jenis di seluruh penjuru Nusantara.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$]@"/>
     <numFmt numFmtId="165" formatCode="[$-421]hh:mm"/>
@@ -2366,13 +2367,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="topRight" activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2507,7 @@
         <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -2575,60 +2576,60 @@
         <v>106.84028946174401</v>
       </c>
       <c r="AF2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" t="s">
         <v>54</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" t="s">
         <v>58</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
         <v>59</v>
-      </c>
-      <c r="U3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
       </c>
       <c r="X3" s="9">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
         <v>61</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>62</v>
       </c>
       <c r="AD3">
         <v>-6.3027984985778698</v>
@@ -2637,18 +2638,18 @@
         <v>106.88786250715999</v>
       </c>
       <c r="AF3" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2657,34 +2658,34 @@
         <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
         <v>39</v>
       </c>
       <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" t="s">
         <v>67</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>68</v>
       </c>
-      <c r="U4" t="s">
-        <v>69</v>
-      </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X4" s="9">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" t="s">
         <v>70</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>71</v>
       </c>
       <c r="AD4">
         <v>-6.1658974997396498</v>
@@ -2693,75 +2694,75 @@
         <v>106.833966529085</v>
       </c>
       <c r="AF4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
       </c>
       <c r="Q5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="S5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" t="s">
         <v>83</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>84</v>
       </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X5" s="9">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" t="s">
         <v>86</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>87</v>
       </c>
       <c r="AD5">
         <v>-6.1785499519907798</v>
@@ -2770,84 +2771,84 @@
         <v>106.83277191867199</v>
       </c>
       <c r="AF5" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
       </c>
       <c r="Q6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="W6" t="s">
         <v>98</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>103</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>104</v>
       </c>
       <c r="AD6">
         <v>-6.1753935482312503</v>
@@ -2856,60 +2857,60 @@
         <v>106.827151981719</v>
       </c>
       <c r="AF6" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
         <v>107</v>
       </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="W7" t="s">
         <v>110</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z7" t="s">
         <v>112</v>
       </c>
-      <c r="Y7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="AA7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AB7" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>115</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>116</v>
       </c>
       <c r="AD7">
         <v>-6.2903171193619603</v>
@@ -2918,66 +2919,66 @@
         <v>106.90859647079201</v>
       </c>
       <c r="AF7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
       <c r="Q8" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X8" s="9">
         <v>5000</v>
       </c>
       <c r="AB8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC8" t="s">
         <v>126</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>127</v>
       </c>
       <c r="AD8">
         <v>-6.1963101616413798</v>
@@ -2986,57 +2987,57 @@
         <v>106.849993043258</v>
       </c>
       <c r="AF8" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="P9" t="s">
         <v>129</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>130</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
         <v>131</v>
       </c>
-      <c r="Q9" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" t="s">
-        <v>133</v>
-      </c>
       <c r="W9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X9" s="9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AD9">
         <v>-6.2910499408183904</v>
@@ -3045,54 +3046,54 @@
         <v>106.771567493006</v>
       </c>
       <c r="AF9" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="P10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>140</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="U10" t="s">
         <v>141</v>
       </c>
-      <c r="S10" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" t="s">
-        <v>143</v>
-      </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X10" s="9">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AD10">
         <v>-6.1252003690329397</v>
@@ -3101,51 +3102,51 @@
         <v>106.793359599637</v>
       </c>
       <c r="AF10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>146</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>148</v>
       </c>
-      <c r="R11" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="S11" t="s">
-        <v>150</v>
-      </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X11" s="9">
         <v>10000</v>
       </c>
       <c r="AB11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AD11">
         <v>-6.3073173436541596</v>
@@ -3154,51 +3155,51 @@
         <v>106.894176875479</v>
       </c>
       <c r="AF11" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="P12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="U12" t="s">
         <v>155</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="W12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AB12" t="s">
         <v>157</v>
       </c>
-      <c r="W12" t="s">
-        <v>99</v>
-      </c>
-      <c r="X12" s="9" t="s">
+      <c r="AC12" t="s">
         <v>158</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>160</v>
       </c>
       <c r="AD12">
         <v>-6.1275397928704596</v>
@@ -3207,69 +3208,69 @@
         <v>106.809071555342</v>
       </c>
       <c r="AF12" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" t="s">
         <v>164</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>166</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="T13" t="s">
         <v>167</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>168</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>169</v>
       </c>
-      <c r="U13" t="s">
-        <v>170</v>
-      </c>
-      <c r="V13" t="s">
-        <v>171</v>
-      </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X13" s="9">
         <v>5000</v>
       </c>
       <c r="AB13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD13">
         <v>-6.1371336262278096</v>
@@ -3278,45 +3279,45 @@
         <v>106.81300122728901</v>
       </c>
       <c r="AF13" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X14" s="9">
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD14">
         <v>-6.1671849290241996</v>
@@ -3325,78 +3326,78 @@
         <v>106.820300697745</v>
       </c>
       <c r="AF14" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P15" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>181</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="T15" t="s">
         <v>182</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>183</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>184</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Z15" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="W15" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y15" s="9" t="s">
+      <c r="AA15" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AB15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC15" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="AD15">
         <v>-6.2897778311939403</v>
@@ -3405,57 +3406,57 @@
         <v>106.79325736891001</v>
       </c>
       <c r="AF15" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" t="s">
         <v>192</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="P16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>194</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S16" t="s">
-        <v>196</v>
-      </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X16" s="9">
         <v>0</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AD16">
         <v>-6.1416742665790203</v>
@@ -3464,39 +3465,39 @@
         <v>106.901586885387</v>
       </c>
       <c r="AF16" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="P17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" t="s">
         <v>200</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P17" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>202</v>
-      </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X17" s="9">
         <v>0</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AD17">
         <v>-6.1358232472997303</v>
@@ -3505,60 +3506,60 @@
         <v>106.814334157414</v>
       </c>
       <c r="AF17" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="P18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" t="s">
         <v>206</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>208</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="T18" t="s">
         <v>209</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>210</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
+        <v>210</v>
+      </c>
+      <c r="W18" t="s">
         <v>211</v>
       </c>
-      <c r="U18" t="s">
+      <c r="X18" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="V18" t="s">
-        <v>212</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="AB18" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="AC18" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="AD18">
         <v>-6.2241048784007296</v>
@@ -3567,60 +3568,60 @@
         <v>106.82389679689101</v>
       </c>
       <c r="AF18" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P19" t="s">
         <v>39</v>
       </c>
       <c r="Q19" t="s">
+        <v>217</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="S19" t="s">
         <v>219</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="T19" t="s">
         <v>220</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
+        <v>220</v>
+      </c>
+      <c r="V19" t="s">
         <v>221</v>
       </c>
-      <c r="T19" t="s">
-        <v>222</v>
-      </c>
-      <c r="U19" t="s">
-        <v>222</v>
-      </c>
-      <c r="V19" t="s">
-        <v>223</v>
-      </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X19" s="9">
         <v>0</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC19" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD19">
         <v>-6.1738474508070098</v>
@@ -3629,51 +3630,51 @@
         <v>106.830425628578</v>
       </c>
       <c r="AF19" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P20" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="U20" t="s">
         <v>227</v>
       </c>
-      <c r="P20" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="V20" t="s">
         <v>228</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>229</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AB20" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="AC20" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="AD20">
         <v>-6.2675150072628298</v>
@@ -3682,69 +3683,69 @@
         <v>106.824082554965</v>
       </c>
       <c r="AF20" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="P21" t="s">
         <v>39</v>
       </c>
       <c r="Q21" t="s">
+        <v>237</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S21" t="s">
         <v>239</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="T21" t="s">
         <v>240</v>
       </c>
-      <c r="S21" t="s">
-        <v>241</v>
-      </c>
-      <c r="T21" t="s">
-        <v>242</v>
-      </c>
       <c r="U21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X21" s="9">
         <v>0</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD21">
         <v>-6.2104437331357296</v>
@@ -3753,60 +3754,60 @@
         <v>106.799762674783</v>
       </c>
       <c r="AF21" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>244</v>
+        <v>621</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X22" s="9">
         <v>25000</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AD22">
         <v>-6.3036601776024099</v>
@@ -3815,69 +3816,69 @@
         <v>106.901011732748</v>
       </c>
       <c r="AF22" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s">
         <v>39</v>
       </c>
       <c r="Q23" t="s">
+        <v>250</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="S23" t="s">
+        <v>252</v>
+      </c>
+      <c r="T23" t="s">
         <v>253</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="U23" t="s">
         <v>254</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>255</v>
       </c>
-      <c r="T23" t="s">
+      <c r="W23" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="U23" t="s">
+      <c r="AB23" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="V23" t="s">
+      <c r="AC23" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="W23" t="s">
-        <v>99</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="AD23">
         <v>-6.1951565920131397</v>
@@ -3886,54 +3887,54 @@
         <v>106.848372493646</v>
       </c>
       <c r="AF23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q24" t="s">
+        <v>260</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U24" t="s">
+        <v>262</v>
+      </c>
+      <c r="V24" t="s">
         <v>263</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="U24" t="s">
-        <v>265</v>
-      </c>
-      <c r="V24" t="s">
-        <v>266</v>
-      </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X24" s="9">
         <v>15000</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AD24">
         <v>-6.3022461276546</v>
@@ -3942,54 +3943,54 @@
         <v>106.90496512262099</v>
       </c>
       <c r="AF24" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q25" t="s">
+        <v>267</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S25" t="s">
+        <v>269</v>
+      </c>
+      <c r="U25" t="s">
         <v>270</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="S25" t="s">
-        <v>272</v>
-      </c>
-      <c r="U25" t="s">
-        <v>273</v>
-      </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X25" s="9">
         <v>0</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AD25">
         <v>-6.3051878789188596</v>
@@ -3998,60 +3999,60 @@
         <v>106.903966692444</v>
       </c>
       <c r="AF25" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P26" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="S26" t="s">
         <v>278</v>
       </c>
-      <c r="P26" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="U26" t="s">
         <v>279</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="V26" t="s">
         <v>280</v>
       </c>
-      <c r="S26" t="s">
-        <v>281</v>
-      </c>
-      <c r="U26" t="s">
-        <v>282</v>
-      </c>
-      <c r="V26" t="s">
-        <v>283</v>
-      </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X26" s="9">
         <v>185000</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AD26">
         <v>-6.2889395055810802</v>
@@ -4060,51 +4061,51 @@
         <v>106.801979083568</v>
       </c>
       <c r="AF26" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X27" s="9">
         <v>15000</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD27">
         <v>-6.3010491630791901</v>
@@ -4113,45 +4114,45 @@
         <v>106.891443741804</v>
       </c>
       <c r="AF27" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s">
         <v>39</v>
       </c>
       <c r="Q28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X28" s="9">
         <v>0</v>
       </c>
       <c r="AB28" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD28">
         <v>-6.1929602057138204</v>
@@ -4160,63 +4161,63 @@
         <v>106.83266425206</v>
       </c>
       <c r="AF28" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>296</v>
+        <v>620</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s">
         <v>39</v>
       </c>
       <c r="Q29" t="s">
+        <v>295</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T29" t="s">
+        <v>297</v>
+      </c>
+      <c r="U29" t="s">
+        <v>298</v>
+      </c>
+      <c r="W29" t="s">
         <v>299</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="X29" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="T29" t="s">
+      <c r="Y29" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="U29" t="s">
+      <c r="Z29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA29" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="W29" t="s">
+      <c r="AB29" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="AC29" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="Y29" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA29" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="AD29">
         <v>-6.1861950350851203</v>
@@ -4225,18 +4226,18 @@
         <v>106.836435641482</v>
       </c>
       <c r="AF29" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>34</v>
@@ -4248,37 +4249,37 @@
         <v>36</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P30" t="s">
         <v>39</v>
       </c>
       <c r="Q30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="S30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X30" s="9">
         <v>0</v>
       </c>
       <c r="AB30" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AC30" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AD30">
         <v>-6.1688582907275498</v>
@@ -4287,58 +4288,58 @@
         <v>106.83338436896901</v>
       </c>
       <c r="AF30" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P31" t="s">
         <v>39</v>
       </c>
       <c r="Q31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB31" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC31" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="W31" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="X31" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC31" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="AD31">
         <v>-6.1783519187355598</v>
@@ -4347,57 +4348,57 @@
         <v>106.838093327206</v>
       </c>
       <c r="AF31" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>327</v>
+        <v>624</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P32" t="s">
         <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="T32" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="U32" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="V32" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X32" s="9">
         <v>0</v>
       </c>
       <c r="AB32" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AC32" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AD32">
         <v>-6.2072157162471804</v>
@@ -4406,51 +4407,51 @@
         <v>106.79886800833199</v>
       </c>
       <c r="AF32" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>330</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC33" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>335</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="X33" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC33" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="AD33">
         <v>-6.3059455575344003</v>
@@ -4459,60 +4460,60 @@
         <v>106.896853990311</v>
       </c>
       <c r="AF33" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P34" t="s">
         <v>39</v>
       </c>
       <c r="Q34" t="s">
+        <v>337</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="S34" t="s">
+        <v>339</v>
+      </c>
+      <c r="T34" t="s">
+        <v>340</v>
+      </c>
+      <c r="U34" t="s">
+        <v>341</v>
+      </c>
+      <c r="V34" t="s">
         <v>342</v>
       </c>
-      <c r="R34" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="S34" t="s">
-        <v>344</v>
-      </c>
-      <c r="T34" t="s">
-        <v>345</v>
-      </c>
-      <c r="U34" t="s">
-        <v>346</v>
-      </c>
-      <c r="V34" t="s">
-        <v>347</v>
-      </c>
       <c r="W34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X34" s="9">
         <v>0</v>
       </c>
       <c r="AB34" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AC34" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AD34">
         <v>-6.1741822330220701</v>
@@ -4521,54 +4522,54 @@
         <v>106.837983599832</v>
       </c>
       <c r="AF34" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q35" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="T35" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="U35" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X35" s="9">
         <v>10000</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AD35">
         <v>-6.3080287250402698</v>
@@ -4577,57 +4578,57 @@
         <v>106.790547867261</v>
       </c>
       <c r="AF35" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q36" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="S36" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="U36" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="V36" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="W36" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X36" s="9">
         <v>10000</v>
       </c>
       <c r="AB36" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC36" s="11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AD36">
         <v>-6.30337267965868</v>
@@ -4636,60 +4637,60 @@
         <v>106.904984756408</v>
       </c>
       <c r="AF36" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P37" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>362</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="S37" t="s">
+        <v>364</v>
+      </c>
+      <c r="T37" t="s">
+        <v>365</v>
+      </c>
+      <c r="U37" t="s">
         <v>366</v>
       </c>
-      <c r="P37" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="V37" t="s">
+        <v>365</v>
+      </c>
+      <c r="W37" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="X37" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="S37" t="s">
+      <c r="AB37" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="T37" t="s">
+      <c r="AC37" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="U37" t="s">
-        <v>371</v>
-      </c>
-      <c r="V37" t="s">
-        <v>370</v>
-      </c>
-      <c r="W37" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="X37" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB37" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC37" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="AD37">
         <v>-6.1909014467239603</v>
@@ -4698,60 +4699,60 @@
         <v>106.76761947882601</v>
       </c>
       <c r="AF37" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P38" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>373</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="S38" t="s">
+        <v>375</v>
+      </c>
+      <c r="T38" t="s">
         <v>376</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O38" s="1" t="s">
+      <c r="U38" t="s">
         <v>377</v>
       </c>
-      <c r="P38" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="V38" t="s">
+        <v>377</v>
+      </c>
+      <c r="W38" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="X38" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="S38" t="s">
+      <c r="AB38" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC38" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="T38" t="s">
-        <v>381</v>
-      </c>
-      <c r="U38" t="s">
-        <v>382</v>
-      </c>
-      <c r="V38" t="s">
-        <v>382</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="X38" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB38" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="AD38">
         <v>-6.1384499467172002</v>
@@ -4760,69 +4761,69 @@
         <v>106.81330481482399</v>
       </c>
       <c r="AF38" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P39" t="s">
         <v>39</v>
       </c>
       <c r="Q39" t="s">
+        <v>384</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="U39" t="s">
+        <v>386</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA39" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="AB39" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="U39" t="s">
+      <c r="AC39" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="X39" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA39" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="AB39" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC39" s="11" t="s">
-        <v>396</v>
       </c>
       <c r="AD39">
         <v>-6.1935518832636198</v>
@@ -4831,69 +4832,69 @@
         <v>106.84536153426799</v>
       </c>
       <c r="AF39" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P40" t="s">
         <v>39</v>
       </c>
       <c r="Q40" t="s">
+        <v>394</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="S40" t="s">
+        <v>396</v>
+      </c>
+      <c r="T40" t="s">
+        <v>397</v>
+      </c>
+      <c r="U40" t="s">
+        <v>398</v>
+      </c>
+      <c r="V40" t="s">
         <v>399</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="W40" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="X40" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="S40" t="s">
+      <c r="AB40" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="T40" t="s">
+      <c r="AC40" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="U40" t="s">
-        <v>403</v>
-      </c>
-      <c r="V40" t="s">
-        <v>404</v>
-      </c>
-      <c r="W40" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="X40" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB40" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC40" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="AD40">
         <v>-6.1764018346551497</v>
@@ -4902,69 +4903,69 @@
         <v>106.82158989228</v>
       </c>
       <c r="AF40" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41" t="s">
+        <v>404</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S41" t="s">
+        <v>406</v>
+      </c>
+      <c r="T41" t="s">
+        <v>407</v>
+      </c>
+      <c r="U41" t="s">
+        <v>408</v>
+      </c>
+      <c r="V41" t="s">
         <v>409</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="W41" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="S41" t="s">
+      <c r="X41" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="T41" t="s">
+      <c r="Y41" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z41" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="U41" t="s">
+      <c r="AA41" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="V41" t="s">
+      <c r="AB41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC41" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="X41" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y41" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA41" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC41" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="AD41">
         <v>-6.3042946731385001</v>
@@ -4973,60 +4974,60 @@
         <v>106.889043716397</v>
       </c>
       <c r="AF41" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q42" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="S42" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="T42" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="U42" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="V42" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="W42" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X42" s="9">
         <v>0</v>
       </c>
       <c r="AB42" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC42" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AD42">
         <v>-6.2994160635496099</v>
@@ -5035,57 +5036,57 @@
         <v>106.898754728193</v>
       </c>
       <c r="AF42" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q43" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="U43" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="V43" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X43" s="9">
         <v>0</v>
       </c>
       <c r="AB43" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC43" s="11" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AD43">
         <v>-6.2991890555790198</v>
@@ -5094,75 +5095,75 @@
         <v>106.893533180448</v>
       </c>
       <c r="AF43" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P44" t="s">
         <v>39</v>
       </c>
       <c r="Q44" t="s">
+        <v>433</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="T44" t="s">
+        <v>435</v>
+      </c>
+      <c r="U44" t="s">
+        <v>435</v>
+      </c>
+      <c r="V44" t="s">
+        <v>436</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB44" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC44" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="T44" t="s">
-        <v>440</v>
-      </c>
-      <c r="U44" t="s">
-        <v>440</v>
-      </c>
-      <c r="V44" t="s">
-        <v>441</v>
-      </c>
-      <c r="W44" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y44" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA44" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB44" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC44" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="AD44">
         <v>-6.2003749584424801</v>
@@ -5171,57 +5172,57 @@
         <v>106.831007610052</v>
       </c>
       <c r="AF44" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P45" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>441</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="T45" t="s">
         <v>444</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="P45" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>446</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="T45" t="s">
-        <v>449</v>
-      </c>
       <c r="U45" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X45" s="9">
         <v>0</v>
       </c>
       <c r="AB45" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AD45">
         <v>-6.2393418780698999</v>
@@ -5230,57 +5231,57 @@
         <v>106.802767930427</v>
       </c>
       <c r="AF45" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q46" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="S46" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="W46" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X46" s="9">
         <v>5000</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Z46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA46" s="6">
         <v>4500</v>
       </c>
       <c r="AB46" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AD46">
         <v>-6.3041845677159598</v>
@@ -5289,63 +5290,63 @@
         <v>106.901771712265</v>
       </c>
       <c r="AF46" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P47" t="s">
         <v>39</v>
       </c>
       <c r="Q47" t="s">
+        <v>453</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="U47" t="s">
+        <v>455</v>
+      </c>
+      <c r="V47" t="s">
+        <v>456</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y47" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB47" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC47" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="U47" t="s">
-        <v>460</v>
-      </c>
-      <c r="V47" t="s">
-        <v>461</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y47" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA47" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB47" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="AC47" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="AD47">
         <v>-6.1722248114127902</v>
@@ -5354,51 +5355,51 @@
         <v>106.818969026294</v>
       </c>
       <c r="AF47" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q48" t="s">
+        <v>460</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S48" t="s">
+        <v>462</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB48" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="AC48" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="S48" t="s">
-        <v>467</v>
-      </c>
-      <c r="W48" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="X48" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="AB48" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="AD48">
         <v>-6.3003476889347896</v>
@@ -5407,48 +5408,48 @@
         <v>106.886440970062</v>
       </c>
       <c r="AF48" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q49" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="W49" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X49" s="9">
         <v>10000</v>
       </c>
       <c r="AB49" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AD49">
         <v>-6.3052141027248503</v>
@@ -5457,60 +5458,60 @@
         <v>106.89589033057899</v>
       </c>
       <c r="AF49" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P50" t="s">
         <v>39</v>
       </c>
       <c r="Q50" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="S50" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T50" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X50" s="9">
         <v>0</v>
       </c>
       <c r="AB50" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AC50" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AD50">
         <v>-6.1669512894793002</v>
@@ -5519,45 +5520,45 @@
         <v>106.825027430422</v>
       </c>
       <c r="AF50" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P51" t="s">
         <v>39</v>
       </c>
       <c r="Q51" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X51" s="9">
         <v>0</v>
       </c>
       <c r="AB51" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AD51">
         <v>-6.2046296428058598</v>
@@ -5566,54 +5567,54 @@
         <v>106.836532665913</v>
       </c>
       <c r="AF51" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P52" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>486</v>
+      </c>
+      <c r="S52" t="s">
+        <v>487</v>
+      </c>
+      <c r="U52" t="s">
+        <v>488</v>
+      </c>
+      <c r="V52" t="s">
+        <v>488</v>
+      </c>
+      <c r="W52" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O52" s="1" t="s">
+      <c r="X52" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="P52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q52" t="s">
+      <c r="AB52" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC52" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="S52" t="s">
-        <v>492</v>
-      </c>
-      <c r="U52" t="s">
-        <v>493</v>
-      </c>
-      <c r="V52" t="s">
-        <v>493</v>
-      </c>
-      <c r="W52" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="X52" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB52" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC52" s="11" t="s">
-        <v>496</v>
       </c>
       <c r="AD52">
         <v>-6.2316989630693103</v>
@@ -5622,45 +5623,45 @@
         <v>106.818542763548</v>
       </c>
       <c r="AF52" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q53" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="W53" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AB53" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AD53">
         <v>-6.13520026432625</v>
@@ -5669,66 +5670,66 @@
         <v>106.813300112346</v>
       </c>
       <c r="AF53" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O54" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="P54" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>499</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="S54" t="s">
+        <v>501</v>
+      </c>
+      <c r="U54" t="s">
+        <v>502</v>
+      </c>
+      <c r="V54" t="s">
         <v>503</v>
       </c>
-      <c r="P54" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="W54" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="X54" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="S54" t="s">
+      <c r="Y54" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z54" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA54" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="U54" t="s">
+      <c r="AB54" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC54" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="V54" t="s">
-        <v>508</v>
-      </c>
-      <c r="W54" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="X54" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y54" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA54" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="AB54" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC54" s="11" t="s">
-        <v>512</v>
       </c>
       <c r="AD54">
         <v>-6.1342182044104501</v>
@@ -5737,51 +5738,51 @@
         <v>106.814692926147</v>
       </c>
       <c r="AF54" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q55" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="S55" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="W55" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X55" s="9">
         <v>25000</v>
       </c>
       <c r="AB55" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AD55">
         <v>-6.3057427148999299</v>
@@ -5790,78 +5791,78 @@
         <v>106.895463878659</v>
       </c>
       <c r="AF55" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P56" t="s">
         <v>39</v>
       </c>
       <c r="Q56" t="s">
+        <v>515</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S56" t="s">
+        <v>517</v>
+      </c>
+      <c r="T56" t="s">
+        <v>518</v>
+      </c>
+      <c r="U56" t="s">
+        <v>518</v>
+      </c>
+      <c r="V56" t="s">
+        <v>519</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y56" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA56" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC56" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="S56" t="s">
-        <v>522</v>
-      </c>
-      <c r="T56" t="s">
-        <v>523</v>
-      </c>
-      <c r="U56" t="s">
-        <v>523</v>
-      </c>
-      <c r="V56" t="s">
-        <v>524</v>
-      </c>
-      <c r="W56" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="X56" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y56" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA56" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB56" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC56" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="AD56">
         <v>-6.18379952050197</v>
@@ -5870,63 +5871,63 @@
         <v>106.84310717115601</v>
       </c>
       <c r="AF56" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P57" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>523</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="U57" t="s">
+        <v>525</v>
+      </c>
+      <c r="V57" t="s">
+        <v>526</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="X57" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y57" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA57" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB57" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="P57" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="AC57" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="R57" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="U57" t="s">
-        <v>530</v>
-      </c>
-      <c r="V57" t="s">
-        <v>531</v>
-      </c>
-      <c r="W57" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="X57" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y57" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA57" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="AB57" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>533</v>
       </c>
       <c r="AD57">
         <v>-6.1879645292619596</v>
@@ -5935,51 +5936,51 @@
         <v>106.809607366134</v>
       </c>
       <c r="AF57" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q58" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="S58" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="W58" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X58" s="9">
         <v>5000</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AD58">
         <v>-6.3033150939248701</v>
@@ -5988,57 +5989,57 @@
         <v>106.901455628741</v>
       </c>
       <c r="AF58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>540</v>
+        <v>628</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q59" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="S59" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="U59" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="V59" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="W59" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X59" s="9">
         <v>0</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AD59">
         <v>-6.1677099344560302</v>
@@ -6047,54 +6048,54 @@
         <v>106.79050738195301</v>
       </c>
       <c r="AF59" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q60" t="s">
+        <v>543</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="U60" t="s">
+        <v>546</v>
+      </c>
+      <c r="W60" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="X60" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB60" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC60" s="11" t="s">
         <v>549</v>
-      </c>
-      <c r="R60" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="U60" t="s">
-        <v>552</v>
-      </c>
-      <c r="W60" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="X60" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="AB60" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC60" s="11" t="s">
-        <v>555</v>
       </c>
       <c r="AD60">
         <v>-6.3049137581984702</v>
@@ -6103,51 +6104,51 @@
         <v>106.898943393602</v>
       </c>
       <c r="AF60" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O61" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P61" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>552</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="U61" t="s">
+        <v>554</v>
+      </c>
+      <c r="W61" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="X61" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB61" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC61" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="P61" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>558</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="U61" t="s">
-        <v>560</v>
-      </c>
-      <c r="W61" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="X61" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="AB61" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC61" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="AD61">
         <v>-6.13490616619183</v>
@@ -6156,78 +6157,78 @@
         <v>106.812444552537</v>
       </c>
       <c r="AF61" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q62" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="S62" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="T62" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="U62" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="V62" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="W62" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X62" s="9">
         <v>16500</v>
       </c>
       <c r="AB62" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC62" s="11" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AD62">
         <v>-6.3022187619334797</v>
@@ -6236,7 +6237,7 @@
         <v>106.90357235395599</v>
       </c>
       <c r="AF62" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
